--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl12-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl12-Ccr10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Ccl12</t>
+  </si>
+  <si>
+    <t>Ccr10</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ccl12</t>
-  </si>
-  <si>
-    <t>Ccr10</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>20.23247666666667</v>
+      </c>
+      <c r="H2">
+        <v>60.69743</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>3.288126333333333</v>
-      </c>
-      <c r="H2">
-        <v>9.864379</v>
-      </c>
-      <c r="I2">
-        <v>0.05813306630866938</v>
-      </c>
-      <c r="J2">
-        <v>0.05813306630866937</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>0.4846943333333333</v>
+        <v>0.5706193333333334</v>
       </c>
       <c r="N2">
-        <v>1.454083</v>
+        <v>1.711858</v>
       </c>
       <c r="O2">
-        <v>0.6433016390425528</v>
+        <v>0.4188640502130462</v>
       </c>
       <c r="P2">
-        <v>0.6433016390425528</v>
+        <v>0.4188640502130463</v>
       </c>
       <c r="Q2">
-        <v>1.593736201050778</v>
+        <v>11.54504234721556</v>
       </c>
       <c r="R2">
-        <v>14.343625809457</v>
+        <v>103.90538112494</v>
       </c>
       <c r="S2">
-        <v>0.03739709683893642</v>
+        <v>0.4188640502130462</v>
       </c>
       <c r="T2">
-        <v>0.03739709683893641</v>
+        <v>0.4188640502130463</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>3.288126333333333</v>
+        <v>20.23247666666667</v>
       </c>
       <c r="H3">
-        <v>9.864379</v>
+        <v>60.69743</v>
       </c>
       <c r="I3">
-        <v>0.05813306630866938</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.05813306630866937</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,28 +617,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.2197996666666667</v>
+        <v>0.4846943333333333</v>
       </c>
       <c r="N3">
-        <v>0.6593990000000001</v>
+        <v>1.454083</v>
       </c>
       <c r="O3">
-        <v>0.2917250648573845</v>
+        <v>0.3557906641356566</v>
       </c>
       <c r="P3">
-        <v>0.2917250648573845</v>
+        <v>0.3557906641356566</v>
       </c>
       <c r="Q3">
-        <v>0.7227290720245556</v>
+        <v>9.806566789632221</v>
       </c>
       <c r="R3">
-        <v>6.504561648221</v>
+        <v>88.25910110668998</v>
       </c>
       <c r="S3">
-        <v>0.01695887253925521</v>
+        <v>0.3557906641356566</v>
       </c>
       <c r="T3">
-        <v>0.01695887253925521</v>
+        <v>0.3557906641356566</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,247 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3.288126333333333</v>
+        <v>20.23247666666667</v>
       </c>
       <c r="H4">
-        <v>9.864379</v>
+        <v>60.69743</v>
       </c>
       <c r="I4">
-        <v>0.05813306630866938</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.05813306630866937</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.048954</v>
+        <v>0.3069883333333334</v>
       </c>
       <c r="N4">
-        <v>0.146862</v>
+        <v>0.920965</v>
       </c>
       <c r="O4">
-        <v>0.06497329610006264</v>
+        <v>0.2253452856512971</v>
       </c>
       <c r="P4">
-        <v>0.06497329610006264</v>
+        <v>0.2253452856512971</v>
       </c>
       <c r="Q4">
-        <v>0.160966936522</v>
+        <v>6.211134291105556</v>
       </c>
       <c r="R4">
-        <v>1.448702428698</v>
+        <v>55.90020861995</v>
       </c>
       <c r="S4">
-        <v>0.003777096930477751</v>
+        <v>0.2253452856512971</v>
       </c>
       <c r="T4">
-        <v>0.003777096930477751</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>53.27393966666666</v>
-      </c>
-      <c r="H5">
-        <v>159.821819</v>
-      </c>
-      <c r="I5">
-        <v>0.9418669336913307</v>
-      </c>
-      <c r="J5">
-        <v>0.9418669336913306</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>0.4846943333333333</v>
-      </c>
-      <c r="N5">
-        <v>1.454083</v>
-      </c>
-      <c r="O5">
-        <v>0.6433016390425528</v>
-      </c>
-      <c r="P5">
-        <v>0.6433016390425528</v>
-      </c>
-      <c r="Q5">
-        <v>25.82157667077522</v>
-      </c>
-      <c r="R5">
-        <v>232.394190036977</v>
-      </c>
-      <c r="S5">
-        <v>0.6059045422036164</v>
-      </c>
-      <c r="T5">
-        <v>0.6059045422036163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>53.27393966666666</v>
-      </c>
-      <c r="H6">
-        <v>159.821819</v>
-      </c>
-      <c r="I6">
-        <v>0.9418669336913307</v>
-      </c>
-      <c r="J6">
-        <v>0.9418669336913306</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.2197996666666667</v>
-      </c>
-      <c r="N6">
-        <v>0.6593990000000001</v>
-      </c>
-      <c r="O6">
-        <v>0.2917250648573845</v>
-      </c>
-      <c r="P6">
-        <v>0.2917250648573845</v>
-      </c>
-      <c r="Q6">
-        <v>11.70959418075344</v>
-      </c>
-      <c r="R6">
-        <v>105.386347626781</v>
-      </c>
-      <c r="S6">
-        <v>0.2747661923181293</v>
-      </c>
-      <c r="T6">
-        <v>0.2747661923181293</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>53.27393966666666</v>
-      </c>
-      <c r="H7">
-        <v>159.821819</v>
-      </c>
-      <c r="I7">
-        <v>0.9418669336913307</v>
-      </c>
-      <c r="J7">
-        <v>0.9418669336913306</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.048954</v>
-      </c>
-      <c r="N7">
-        <v>0.146862</v>
-      </c>
-      <c r="O7">
-        <v>0.06497329610006264</v>
-      </c>
-      <c r="P7">
-        <v>0.06497329610006264</v>
-      </c>
-      <c r="Q7">
-        <v>2.607972442441999</v>
-      </c>
-      <c r="R7">
-        <v>23.471751981978</v>
-      </c>
-      <c r="S7">
-        <v>0.06119619916958489</v>
-      </c>
-      <c r="T7">
-        <v>0.06119619916958488</v>
+        <v>0.2253452856512971</v>
       </c>
     </row>
   </sheetData>
